--- a/Experiment/Data Analysis/Unified Project Data Analysis.xlsx
+++ b/Experiment/Data Analysis/Unified Project Data Analysis.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4421EA-AF18-4745-816E-25BB25E5595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F449C-7613-4954-BC53-F2E48366C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{D0DA7CBF-D97A-45CD-BA7A-3D4D06EE542A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{D0DA7CBF-D97A-45CD-BA7A-3D4D06EE542A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alignment Between LLMs Raw (O)" sheetId="5" r:id="rId1"/>
-    <sheet name="Alignment by Domain Summary (O)" sheetId="1" r:id="rId2"/>
-    <sheet name="Cronbach's Alpha Summary (O)" sheetId="2" r:id="rId3"/>
-    <sheet name="Alignment Between LLMs (O)" sheetId="6" r:id="rId4"/>
-    <sheet name="Model Similarity (N)" sheetId="3" r:id="rId5"/>
-    <sheet name="Sankey Plots (N)" sheetId="4" r:id="rId6"/>
+    <sheet name="Alignment Between Lang Raw (O)" sheetId="5" r:id="rId1"/>
+    <sheet name="Alignment Between LLMs Raw (O)" sheetId="8" r:id="rId2"/>
+    <sheet name="Alignment Between LLMs (O)" sheetId="7" r:id="rId3"/>
+    <sheet name="Alignment by Domain Summary (O)" sheetId="1" r:id="rId4"/>
+    <sheet name="Cronbach's Alpha Summary (O)" sheetId="2" r:id="rId5"/>
+    <sheet name="Alignment Between Languages (O)" sheetId="6" r:id="rId6"/>
+    <sheet name="Model Similarity (N)" sheetId="3" r:id="rId7"/>
+    <sheet name="Sankey Plots (N)" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Model Similarity (N)'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Model Similarity (N)'!$A$1:$C$436</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3766" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="162">
   <si>
     <t>English</t>
   </si>
@@ -491,6 +515,54 @@
   <si>
     <t>llm_src_es_gpt_vs_llm_tgt_cn_gpt</t>
   </si>
+  <si>
+    <t>gpt_bfi2_domains_en_clean_vs_deepseek_bfi2_domains_en</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_en_clean_vs_mistral_bfi2_domains_en_clean</t>
+  </si>
+  <si>
+    <t>avg_alignment</t>
+  </si>
+  <si>
+    <t>GPT v. Deepseek</t>
+  </si>
+  <si>
+    <t>GPT v. Mistral</t>
+  </si>
+  <si>
+    <t>DeepSeek v. Mistral</t>
+  </si>
+  <si>
+    <t>mistral_bfi2_domains_en_clean_vs_deepseek_bfi2_domains_en</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_cn_clean_vs_deepseek_bfi2_domains_cn</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_cn_clean_vs_mistral_bfi2_domains_cn_clean</t>
+  </si>
+  <si>
+    <t>mistral_bfi2_domains_cn_clean_vs_deepseek_bfi2_domains_cn</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_es_clean_vs_deepseek_bfi2_domains_es</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_es_clean_vs_mistral_bfi2_domains_es_clean</t>
+  </si>
+  <si>
+    <t>mistral_bfi2_domains_es_clean_vs_deepseek_bfi2_domains_es</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_tr_clean_vs_deepseek_bfi2_domains_tr</t>
+  </si>
+  <si>
+    <t>gpt_bfi2_domains_tr_clean_vs_mistral_bfi2_domains_tr_clean</t>
+  </si>
+  <si>
+    <t>mistral_bfi2_domains_tr_clean_vs_deepseek_bfi2_domains_tr</t>
+  </si>
 </sst>
 </file>
 
@@ -557,11 +629,134 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -571,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +777,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
@@ -1061,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C64573D-9936-47E4-9F46-0C9F5BA751CF}">
   <dimension ref="A1:AK188"/>
   <sheetViews>
-    <sheetView topLeftCell="P13" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
@@ -15184,6 +15393,1186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AEC816-2C2E-4B88-9ABC-F87BE872D862}">
+  <dimension ref="A1:C71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.92145833333333305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.92354166666666704</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.93812499999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.89479166666666698</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.926875</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.58083333333333298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.81333333333333302</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.77791666666666703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.82354166666666695</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.60895833333333305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.50395833333333295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.76729166666666704</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.76979166666666698</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.82583333333333298</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.57833333333333303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0.90541666666666698</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.95458333333333301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0.928958333333333</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.94437499999999996</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.95895833333333302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.59125000000000005</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.76979166666666698</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0.77437500000000004</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.83395833333333302</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.80812499999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.79458333333333298</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>0.71062499999999995</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0.91645833333333304</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0.93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.91208333333333302</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0.99041666666666694</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>0.84854166666666697</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>0.45895833333333302</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>0.76958333333333295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>0.66770833333333302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>0.73583333333333301</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>0.51833333333333298</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.73041666666666705</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>0.72979166666666695</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>0.745</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>0.666875</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>0.89833333333333298</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0.909791666666667</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>0.91229166666666694</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>0.913333333333333</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>0.81729166666666697</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>0.68916666666666704</v>
+      </c>
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>0.75437500000000002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>0.70770833333333305</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>0.50583333333333302</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.758541666666667</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>0.691041666666667</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0.75895833333333296</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>0.57833333333333303</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5881056D-D369-4D4B-803B-DF181066556C}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>'Alignment Between LLMs Raw (O)'!B2</f>
+        <v>0.92145833333333305</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3:C7">'Alignment Between LLMs Raw (O)'!B7:B11</f>
+        <v>0.58083333333333298</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3:D7">'Alignment Between LLMs Raw (O)'!B12:B16</f>
+        <v>0.50395833333333295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4:B7">'Alignment Between LLMs Raw (O)'!B3:B6</f>
+        <v>0.92354166666666704</v>
+      </c>
+      <c r="C4">
+        <v>0.81333333333333302</v>
+      </c>
+      <c r="D4">
+        <v>0.76729166666666704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.93812499999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.77791666666666703</v>
+      </c>
+      <c r="D5">
+        <v>0.76979166666666698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.89479166666666698</v>
+      </c>
+      <c r="C6">
+        <v>0.82354166666666695</v>
+      </c>
+      <c r="D6">
+        <v>0.82583333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.926875</v>
+      </c>
+      <c r="C7">
+        <v>0.60895833333333305</v>
+      </c>
+      <c r="D7">
+        <v>0.57833333333333303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11:B15">'Alignment Between LLMs Raw (O)'!B39:B43</f>
+        <v>0.91645833333333304</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:C15">'Alignment Between LLMs Raw (O)'!B44:B48</f>
+        <v>0.45895833333333302</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11:D15">'Alignment Between LLMs Raw (O)'!B49:B53</f>
+        <v>0.51833333333333298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.93</v>
+      </c>
+      <c r="C12">
+        <v>0.76958333333333295</v>
+      </c>
+      <c r="D12">
+        <v>0.73041666666666705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.91208333333333302</v>
+      </c>
+      <c r="C13">
+        <v>0.66770833333333302</v>
+      </c>
+      <c r="D13">
+        <v>0.72979166666666695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.99041666666666694</v>
+      </c>
+      <c r="C14">
+        <v>0.73583333333333301</v>
+      </c>
+      <c r="D14">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.84854166666666697</v>
+      </c>
+      <c r="C15">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.666875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19:B23">'Alignment Between LLMs Raw (O)'!B21:B25</f>
+        <v>0.90541666666666698</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:C23">'Alignment Between LLMs Raw (O)'!B26:B30</f>
+        <v>0.59125000000000005</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19:D23">'Alignment Between LLMs Raw (O)'!B31:B35</f>
+        <v>0.67249999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0.95458333333333301</v>
+      </c>
+      <c r="C20">
+        <v>0.76979166666666698</v>
+      </c>
+      <c r="D20">
+        <v>0.80812499999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0.928958333333333</v>
+      </c>
+      <c r="C21">
+        <v>0.77437500000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.94437499999999996</v>
+      </c>
+      <c r="C22">
+        <v>0.83395833333333302</v>
+      </c>
+      <c r="D22">
+        <v>0.79458333333333298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.95895833333333302</v>
+      </c>
+      <c r="C23">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D23">
+        <v>0.71062499999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" cm="1">
+        <f t="array" ref="B27:B31">'Alignment Between LLMs Raw (O)'!B57:B61</f>
+        <v>0.89833333333333298</v>
+      </c>
+      <c r="C27" cm="1">
+        <f t="array" ref="C27:C31">'Alignment Between LLMs Raw (O)'!B62:B66</f>
+        <v>0.55333333333333301</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27:D31">'Alignment Between LLMs Raw (O)'!B67:B71</f>
+        <v>0.50583333333333302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.909791666666667</v>
+      </c>
+      <c r="C28">
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="D28">
+        <v>0.758541666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.91229166666666694</v>
+      </c>
+      <c r="C29">
+        <v>0.68916666666666704</v>
+      </c>
+      <c r="D29">
+        <v>0.691041666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>0.913333333333333</v>
+      </c>
+      <c r="C30">
+        <v>0.75437500000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.75895833333333296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>0.81729166666666697</v>
+      </c>
+      <c r="C31">
+        <v>0.70770833333333305</v>
+      </c>
+      <c r="D31">
+        <v>0.57833333333333303</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:D7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AF043D-37A5-4B9D-B6B3-CE0E50559BB9}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -15562,12 +16951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0656F-ABF5-4342-8544-9D504C6EC940}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15878,12 +17267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6CE5F9-EB9F-4B48-842E-0D6660CFC06A}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15926,23 +17315,23 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D3:D14)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D3:D14)</f>
         <v>0.9504166666666668</v>
       </c>
       <c r="C3">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L3:L14)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L3:L14)</f>
         <v>0.91937499999999994</v>
       </c>
       <c r="D3">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T3:T14)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T3:T14)</f>
         <v>0.9425</v>
       </c>
       <c r="E3">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB3:AB14)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB3:AB14)</f>
         <v>0.95604166666666657</v>
       </c>
       <c r="F3">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ3:AJ14)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ3:AJ14)</f>
         <v>0.9414583333333334</v>
       </c>
     </row>
@@ -15951,23 +17340,23 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D15:D26)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D15:D26)</f>
         <v>0.9447916666666667</v>
       </c>
       <c r="C4">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L15:L26)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L15:L26)</f>
         <v>0.90916666666666668</v>
       </c>
       <c r="D4">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T15:T26)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T15:T26)</f>
         <v>0.96937499999999999</v>
       </c>
       <c r="E4">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB15:AB26)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB15:AB26)</f>
         <v>0.88854166666666679</v>
       </c>
       <c r="F4">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ15:AJ26)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ15:AJ26)</f>
         <v>0.89395833333333341</v>
       </c>
     </row>
@@ -15976,23 +17365,23 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D27:D38)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D27:D38)</f>
         <v>0.95895833333333325</v>
       </c>
       <c r="C5">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L27:L38)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L27:L38)</f>
         <v>0.94270833333333337</v>
       </c>
       <c r="D5">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T27:T38)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T27:T38)</f>
         <v>0.92104166666666654</v>
       </c>
       <c r="E5">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB27:AB38)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB27:AB38)</f>
         <v>0.9425</v>
       </c>
       <c r="F5">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ27:AJ38)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ27:AJ38)</f>
         <v>0.92541666666666667</v>
       </c>
     </row>
@@ -16001,23 +17390,23 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D39:D50)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D39:D50)</f>
         <v>0.92833333333333334</v>
       </c>
       <c r="C6">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L39:L50)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L39:L50)</f>
         <v>0.94729166666666653</v>
       </c>
       <c r="D6">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T39:T50)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T39:T50)</f>
         <v>0.96229166666666666</v>
       </c>
       <c r="E6">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB39:AB50)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB39:AB50)</f>
         <v>0.94708333333333339</v>
       </c>
       <c r="F6">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ39:AJ50)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ39:AJ50)</f>
         <v>0.95854166666666663</v>
       </c>
     </row>
@@ -16026,23 +17415,23 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D51:D62)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D51:D62)</f>
         <v>0.88124999999999976</v>
       </c>
       <c r="C7">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L51:L62)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L51:L62)</f>
         <v>0.95416666666666661</v>
       </c>
       <c r="D7">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T51:T62)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T51:T62)</f>
         <v>0.81687499999999991</v>
       </c>
       <c r="E7">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB51:AB62)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB51:AB62)</f>
         <v>0.8068749999999999</v>
       </c>
       <c r="F7">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ51:AJ62)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ51:AJ62)</f>
         <v>0.8737499999999998</v>
       </c>
     </row>
@@ -16076,23 +17465,23 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D66:D77)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D66:D77)</f>
         <v>0.9375</v>
       </c>
       <c r="C11">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L66:L77)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L66:L77)</f>
         <v>0.97916666666666663</v>
       </c>
       <c r="D11">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T66:T77)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T66:T77)</f>
         <v>0.93625000000000014</v>
       </c>
       <c r="E11">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB66:AB77)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB66:AB77)</f>
         <v>0.91583333333333339</v>
       </c>
       <c r="F11">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ67:AJ78)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ67:AJ78)</f>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -16101,23 +17490,23 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D78:D89)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D78:D89)</f>
         <v>0.8125</v>
       </c>
       <c r="C12">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L78:L89)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L78:L89)</f>
         <v>0.9375</v>
       </c>
       <c r="D12">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T78:T89)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T78:T89)</f>
         <v>0.9375</v>
       </c>
       <c r="E12">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB78:AB89)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB78:AB89)</f>
         <v>0.95791666666666675</v>
       </c>
       <c r="F12">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ79:AJ90)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ79:AJ90)</f>
         <v>0.875</v>
       </c>
     </row>
@@ -16126,23 +17515,23 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D90:D101)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D90:D101)</f>
         <v>0.9375</v>
       </c>
       <c r="C13">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L90:L101)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L90:L101)</f>
         <v>0.95833333333333337</v>
       </c>
       <c r="D13">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T90:T101)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T90:T101)</f>
         <v>0.89604166666666674</v>
       </c>
       <c r="E13">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB90:AB101)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB90:AB101)</f>
         <v>0.89645833333333336</v>
       </c>
       <c r="F13">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ91:AJ102)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ91:AJ102)</f>
         <v>0.9375</v>
       </c>
     </row>
@@ -16151,23 +17540,23 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D102:D113)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D102:D113)</f>
         <v>0.97916666666666663</v>
       </c>
       <c r="C14">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L102:L113)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L102:L113)</f>
         <v>0.9375</v>
       </c>
       <c r="D14">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T102:T113)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T102:T113)</f>
         <v>0.93708333333333338</v>
       </c>
       <c r="E14">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB102:AB113)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB102:AB113)</f>
         <v>0.95750000000000013</v>
       </c>
       <c r="F14">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ103:AJ114)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ103:AJ114)</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -16176,23 +17565,23 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D114:D125)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D114:D125)</f>
         <v>0.85416666666666663</v>
       </c>
       <c r="C15">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L114:L125)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L114:L125)</f>
         <v>0.89583333333333337</v>
       </c>
       <c r="D15">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T114:T125)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T114:T125)</f>
         <v>0.93687500000000001</v>
       </c>
       <c r="E15">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB114:AB125)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB114:AB125)</f>
         <v>0.916875</v>
       </c>
       <c r="F15">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ115:AJ126)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ115:AJ126)</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -16226,23 +17615,23 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D129:D140)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D129:D140)</f>
         <v>0.97187499999999993</v>
       </c>
       <c r="C19">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L129:L140)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L129:L140)</f>
         <v>0.91500000000000004</v>
       </c>
       <c r="D19">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T129:T140)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T129:T140)</f>
         <v>0.91791666666666671</v>
       </c>
       <c r="E19">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB129:AB140)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB129:AB140)</f>
         <v>0.94041666666666668</v>
       </c>
       <c r="F19">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ129:AJ140)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ129:AJ140)</f>
         <v>0.91645833333333349</v>
       </c>
     </row>
@@ -16251,23 +17640,23 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D141:D152)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D141:D152)</f>
         <v>0.97187500000000016</v>
       </c>
       <c r="C20">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L141:L152)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L141:L152)</f>
         <v>0.92604166666666676</v>
       </c>
       <c r="D20">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T141:T152)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T141:T152)</f>
         <v>0.91520833333333329</v>
       </c>
       <c r="E20">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB141:AB152)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB141:AB152)</f>
         <v>0.94291666666666651</v>
       </c>
       <c r="F20">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ141:AJ152)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ141:AJ152)</f>
         <v>0.92708333333333337</v>
       </c>
     </row>
@@ -16276,23 +17665,23 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D153:D164)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D153:D164)</f>
         <v>0.97333333333333327</v>
       </c>
       <c r="C21">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L153:L164)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L153:L164)</f>
         <v>0.9335416666666666</v>
       </c>
       <c r="D21">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T153:T164)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T153:T164)</f>
         <v>0.93187500000000012</v>
       </c>
       <c r="E21">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB153:AB164)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB153:AB164)</f>
         <v>0.93791666666666662</v>
       </c>
       <c r="F21">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ153:AJ164)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ153:AJ164)</f>
         <v>0.9185416666666667</v>
       </c>
     </row>
@@ -16301,23 +17690,23 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D165:D176)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D165:D176)</f>
         <v>0.96125000000000016</v>
       </c>
       <c r="C22">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L165:L176)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L165:L176)</f>
         <v>0.91208333333333336</v>
       </c>
       <c r="D22">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T165:T176)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T165:T176)</f>
         <v>0.91770833333333313</v>
       </c>
       <c r="E22">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB165:AB176)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB165:AB176)</f>
         <v>0.94687500000000002</v>
       </c>
       <c r="F22">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ165:AJ176)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ165:AJ176)</f>
         <v>0.91500000000000004</v>
       </c>
     </row>
@@ -16326,28 +17715,76 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!D177:D188)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!D177:D188)</f>
         <v>0.98770833333333341</v>
       </c>
       <c r="C23">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!L177:L188)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!L177:L188)</f>
         <v>0.93729166666666652</v>
       </c>
       <c r="D23">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!T177:T188)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!T177:T188)</f>
         <v>0.91687500000000011</v>
       </c>
       <c r="E23">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AB177:AB188)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AB177:AB188)</f>
         <v>0.93</v>
       </c>
       <c r="F23">
-        <f>AVERAGE('Alignment Between LLMs Raw (O)'!AJ177:AJ188)</f>
+        <f>AVERAGE('Alignment Between Lang Raw (O)'!AJ177:AJ188)</f>
         <v>0.92833333333333323</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:D15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:E17 B19:E23 B18:D18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16359,19 +17796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E17 B19:E23 B18:D18">
+  <conditionalFormatting sqref="F5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16383,19 +17808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="D42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -16407,8 +17820,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="D42">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16423,12 +17848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF65746-9F2C-49F4-BE7F-464DE682934D}">
   <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16437,7 +17862,7 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -16450,10 +17875,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4">
@@ -16465,10 +17890,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4">
@@ -16480,10 +17905,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="4">
@@ -16494,10 +17919,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="4">
@@ -16508,10 +17933,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C6">
@@ -16519,10 +17944,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C7">
@@ -16530,10 +17955,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C8">
@@ -16541,10 +17966,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C9">
@@ -16552,10 +17977,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C10">
@@ -16563,21 +17988,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C11">
         <v>-0.31438269015336101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12">
@@ -16628,7 +18053,7 @@
         <v>-0.77846611622964601</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -16639,7 +18064,7 @@
         <v>-0.80024667399657501</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -16650,7 +18075,7 @@
         <v>-0.90044919518270305</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -16661,18 +18086,18 @@
         <v>-0.92157280095754202</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="16">
         <v>-0.96221581015643398</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16683,7 +18108,7 @@
         <v>-0.96262624417248499</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16694,18 +18119,18 @@
         <v>-1.01427572055438</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="18">
         <v>-1.0171789542217</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -16716,51 +18141,51 @@
         <v>-1.1087038176702899</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="18">
         <v>-1.11277362816842</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>-1.1391407344362301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <v>-1.24108697401519</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="18">
         <v>-1.24371993164371</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -16771,33 +18196,34 @@
         <v>-1.2630106087263</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="16">
         <v>-1.2651736378999701</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="16">
         <v>-1.3432719981616801</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C32">
@@ -16805,10 +18231,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C33">
@@ -16837,7 +18263,7 @@
         <v>-1.38707371505628</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -16848,14 +18274,14 @@
         <v>-1.43685963131826</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="16">
         <v>-1.44992440138599</v>
       </c>
     </row>
@@ -17696,2400 +19122,2400 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="18">
         <v>-3.2275108573504698</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="18">
         <v>-3.2377560551831701</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="18">
         <v>-3.2555359089348399</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="18">
         <v>-3.2764357763093099</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="18">
         <v>-3.2912670856806501</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="18">
         <v>-3.2931741854318601</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="18">
         <v>-3.3659263812544999</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="18">
         <v>-3.3743652257334298</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="18">
         <v>-3.3786781132471102</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="18">
         <v>-3.4795603220375</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="18">
         <v>-3.4805413887434198</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="18">
         <v>-3.4829335132994701</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="18">
         <v>-3.5537457793009</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="18">
         <v>-3.5680558067325898</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="18">
         <v>-3.5699397267563899</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="18">
         <v>-3.6308216153176001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="18">
         <v>-3.7442745330282601</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="18">
         <v>-3.7685753083181499</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="18">
         <v>-3.7860849196242699</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="18">
         <v>-3.91791441079465</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="18">
         <v>-3.96537517069414</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="18">
         <v>-3.96987385321352</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="18">
         <v>-3.9743263697885101</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="18">
         <v>-3.9743429876575802</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="18">
         <v>-3.99635653292377</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="18">
         <v>-4.1308247195710797</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="18">
         <v>-4.1680334769327096</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="18">
         <v>-4.17944228405449</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="18">
         <v>-4.2823080578775299</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="18">
         <v>-4.3363787649084999</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="18">
         <v>-4.38144925914429</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="18">
         <v>-4.3983491414645997</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="18">
         <v>-4.4004628529234902</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="18">
         <v>0.32417110919862402</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="21">
         <v>0.19602952115390501</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="21">
         <v>0.158203719494317</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="21">
         <v>0.15284642150161101</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="18">
         <v>9.2351696654013604E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="18">
         <v>5.1425707835831497E-3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="18">
         <v>-0.19520627207761901</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="18">
         <v>-0.205299093266817</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="18">
         <v>-0.396783938918088</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="18">
         <v>-0.58828942162297104</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="18">
         <v>-0.77746540409866904</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="18">
         <v>-0.80486154140539001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="18">
         <v>-0.98178214129217001</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="18">
         <v>-1.0065124539147601</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="18">
         <v>-1.01085065766118</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="18">
         <v>-1.1298367264953</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="18">
         <v>-1.1849430529476499</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="18">
         <v>-1.2005968500881099</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="18">
         <v>-1.2235777361240801</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="18">
         <v>-1.274774874777</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="18">
         <v>-1.2860048423472701</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="18">
         <v>-1.3051018023152501</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="18">
         <v>-1.36979413038867</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="18">
         <v>-1.3805603013254599</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="18">
         <v>-1.3815424499098601</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="18">
         <v>-1.42478894313555</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="18">
         <v>-1.4296477455922301</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="18">
         <v>-1.45383083513466</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="18">
         <v>-1.4597007936180599</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="18">
         <v>-1.46279909498201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="18">
         <v>-1.4931119596189499</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="18">
         <v>-1.64449938174861</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="18">
         <v>-1.7664010023907999</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="18">
         <v>-1.9116607949089099</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="18">
         <v>-2.0178701632750902</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="18">
         <v>-2.0181354092387198</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="18">
         <v>-2.0376598047055299</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="18">
         <v>-2.0382283052482499</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="18">
         <v>-2.0462049583937398</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="18">
         <v>-2.0656454849450498</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="18">
         <v>-2.07256873144035</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="18">
         <v>-2.1010195266101301</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="18">
         <v>-2.1079568611133199</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="18">
         <v>-2.1439559465311699</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="18">
         <v>-2.1996716031147399</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="18">
         <v>-2.2201298048209899</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="18">
         <v>-2.2253965885626998</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="18">
         <v>-2.2303433825369399</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="18">
         <v>-2.2552743409373899</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="18">
         <v>-2.25924719505075</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="18">
         <v>-2.3958161720572</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="18">
         <v>-2.4404376673995398</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="18">
         <v>-2.4573802777731801</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="18">
         <v>-2.4775439664027501</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="18">
         <v>-2.5147187598344098</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="18">
         <v>-2.5171379952775399</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="18">
         <v>-2.5218726524002602</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="18">
         <v>-2.5335888690366302</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="18">
         <v>-2.5703558504809698</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="18">
         <v>-2.62411315058994</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="18">
         <v>-2.6519014669613301</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="18">
         <v>-2.65966110942689</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="18">
         <v>-2.6604766762905001</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="18">
         <v>-2.6779661804037702</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="18">
         <v>-2.67912565883183</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="18">
         <v>-2.7156883129012002</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="18">
         <v>-2.7349028587375099</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="18">
         <v>-2.73535997177185</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="18">
         <v>-2.7457520431300302</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="18">
         <v>-2.7483475323645199</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="18">
         <v>-2.7778105331725098</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="18">
         <v>-2.7910560716946899</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="18">
         <v>-2.8697918722106301</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="18">
         <v>-2.87318839171984</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="18">
         <v>-2.8912706721745498</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="18">
         <v>-2.8953486343392498</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="18">
         <v>-2.8959606520780898</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="18">
         <v>-2.9045677078663199</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="18">
         <v>-2.9067281123858302</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="18">
         <v>-2.9069511577434701</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="18">
         <v>-2.9154614260424001</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="18">
         <v>-2.9347729712231598</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="18">
         <v>-2.9624014364965099</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="18">
         <v>-2.9930197909950902</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="18">
         <v>-3.01549059486184</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="18">
         <v>-3.0221233287090099</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="18">
         <v>-3.04914968029337</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="18">
         <v>-3.0587194690969901</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="18">
         <v>-3.0604735277917601</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="18">
         <v>-3.0632607452395</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="18">
         <v>-3.0769973471457401</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="18">
         <v>-3.09440063497359</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="18">
         <v>-3.1131177340799598</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="18">
         <v>-3.1221689034319202</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="18">
         <v>-3.1243250557104099</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="18">
         <v>-3.1325907324631501</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="18">
         <v>-3.1540760823219101</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="18">
         <v>-3.1632974467818298</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="18">
         <v>-3.1850024221033002</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="18">
         <v>-3.1930081661738399</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="18">
         <v>-3.2104605321709898</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="18">
         <v>-3.2153077742443998</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="18">
         <v>-3.2156997993802801</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="18">
         <v>-3.22444220613774</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="18">
         <v>-3.26038902842958</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="18">
         <v>-3.3102417399550501</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="18">
         <v>-3.3168906476034001</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="18">
         <v>-3.3288873498168399</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="18">
         <v>-3.3447574560278701</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="18">
         <v>-3.3680017449133199</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="18">
         <v>-3.3752470110261101</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="18">
         <v>-3.4612989866089898</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="18">
         <v>-3.4660882169999199</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="18">
         <v>-3.5236288690832498</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="18">
         <v>-3.5974652090045498</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="18">
         <v>-3.65611422774727</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="18">
         <v>-3.6584039746425998</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="18">
         <v>-3.7758851204993098</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="18">
         <v>-3.8252720578236499</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="18">
         <v>-3.91337450332037</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="18">
         <v>-4.0314307334183201</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="18">
         <v>-4.1251991317576602</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="18">
         <v>-4.2096376442816199</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="18">
         <v>-4.2659711697510199</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="18">
         <v>-4.2697370282607396</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="18">
         <v>-4.2752075307179096</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="18">
         <v>-4.2812337628447903</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="18">
         <v>-4.2939513090960899</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="18">
         <v>-4.3305727380178203</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="18">
         <v>-4.4109988171385801</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="18">
         <v>-4.4407627168686297</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="18">
         <v>-4.4630177028796396</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="18">
         <v>-4.4752493585315802</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="18">
         <v>-4.4783869525326097</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="18">
         <v>-4.54276243699156</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="21">
         <v>0.61433576105723597</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="21">
         <v>0.59281549517665499</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="21">
         <v>0.54059385399014204</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="21">
         <v>0.45873107420744602</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="21">
         <v>0.28004760644316901</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="21">
         <v>0.250755888774776</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="21">
         <v>0.12887139345871099</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="18">
         <v>-0.38644534143105602</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="18">
         <v>-0.44304325266857197</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="18">
         <v>-0.62806475280447505</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="18">
         <v>-0.65870942698700996</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="18">
         <v>-0.77910703024940198</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="18">
         <v>-0.81103844299754502</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="18">
         <v>-0.83405502227675199</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="18">
         <v>-0.89366960090317005</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="18">
         <v>-0.92160978781218095</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="18">
         <v>-0.96019526549916501</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="18">
         <v>-0.96118694584803299</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="18">
         <v>-0.97948778670009495</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="18">
         <v>-1.00864156704417</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="18">
         <v>-1.0782006158142099</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="18">
         <v>-1.12652328272334</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="18">
         <v>-1.21372580150117</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="18">
         <v>-1.2265591985592199</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="18">
         <v>-1.24207449389044</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="18">
         <v>-1.2464587684945501</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="18">
         <v>-1.2555343415740099</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="18">
         <v>-1.26103687715557</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="18">
         <v>-1.2845253820418701</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="18">
         <v>-1.32198372072954</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="18">
         <v>-1.34452668878555</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="18">
         <v>-1.3527848694967499</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="18">
         <v>-1.3675862297918799</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="18">
         <v>-1.37565711610057</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="18">
         <v>-1.3882186140783299</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="18">
         <v>-1.3906908120638899</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="18">
         <v>-1.3976532777253901</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="18">
         <v>-1.4045969693748599</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="18">
         <v>-1.4111158727951501</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="18">
         <v>-1.42463344998299</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="18">
         <v>-1.4328318702062</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="18">
         <v>-1.4647069215049699</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="18">
         <v>-1.4698594059879799</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="18">
         <v>-1.5230273528484799</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="18">
         <v>-1.5515021384318499</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="18">
         <v>-1.592544371419</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="18">
         <v>-1.59353879747266</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="18">
         <v>-1.6040715446320699</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="18">
         <v>-1.6048239679032801</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="18">
         <v>-1.6227338518074901</v>
       </c>
     </row>
@@ -21249,7 +22675,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{FEF65746-9F2C-49F4-BE7F-464DE682934D}">
+  <autoFilter ref="A1:C436" xr:uid="{FEF65746-9F2C-49F4-BE7F-464DE682934D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C436">
       <sortCondition sortBy="cellColor" ref="B1" dxfId="2"/>
     </sortState>
@@ -21278,11 +22704,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F2CAA-06F5-4ACD-9D35-913930604623}">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
